--- a/Running projects/Bank Al Habib Center Point Karachi/BAHL 12 floor Centrepoint Karachi/VO/02- Rate analysis for chilled water pipe insulation.xlsx
+++ b/Running projects/Bank Al Habib Center Point Karachi/BAHL 12 floor Centrepoint Karachi/VO/02- Rate analysis for chilled water pipe insulation.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC379795-F3C9-4B0B-AB70-522EEF2390F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A82039-8D67-4F6C-BBA2-00470CBD945F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,9 +11,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$32</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -41,9 +41,6 @@
     <t>Project: Bank Al Habib Limited 12th Floor</t>
   </si>
   <si>
-    <t>Aerofoam insulation on chilled water pipe.</t>
-  </si>
-  <si>
     <t>25mm dia</t>
   </si>
   <si>
@@ -98,10 +95,13 @@
     <t>BOQ</t>
   </si>
   <si>
-    <t>OPTION 1 (XLPE AEROFOAM)</t>
-  </si>
-  <si>
     <t>OPTION 2 (PU INSULATION)</t>
+  </si>
+  <si>
+    <t>Aerofoam insulation on chilled water pipe of 40mm thickness:</t>
+  </si>
+  <si>
+    <t>XLPE AEROFOAM</t>
   </si>
 </sst>
 </file>
@@ -343,6 +343,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -355,7 +356,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -441,13 +441,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>774065</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>144214</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -496,6 +496,161 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1267407</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF0E8285-72A1-49A9-B4C0-AAFF87DAC550}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="419100" y="47625"/>
+          <a:ext cx="1134057" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1215251</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>149223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>69188</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Text Box 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD167975-8F29-4706-8CBC-F554091C92B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1501001" y="339723"/>
+          <a:ext cx="4690249" cy="681965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>P</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>IONEER </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>ERVICES</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Book Antiqua"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -788,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:N48"/>
+  <dimension ref="A9:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +954,7 @@
     <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="48.28515625" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.140625" style="3" customWidth="1"/>
@@ -811,924 +966,924 @@
     <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+    <row r="9" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="G7" s="8">
-        <v>45635</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="B9" s="21"/>
+      <c r="G9" s="8">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" spans="1:12" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+    </row>
+    <row r="11" spans="1:12" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+    </row>
+    <row r="13" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:12" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="12" t="s">
+    </row>
+    <row r="15" spans="1:12" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="12">
-        <v>5</v>
-      </c>
-      <c r="E14" s="13">
-        <v>2063.1999999999998</v>
-      </c>
-      <c r="F14" s="13">
-        <v>570</v>
-      </c>
-      <c r="G14" s="13">
-        <f>SUM(E14+F14)*D14</f>
-        <v>13166</v>
-      </c>
-      <c r="I14" s="6">
-        <v>6200</v>
-      </c>
-      <c r="J14" s="6">
-        <f>I14/5</f>
-        <v>1240</v>
-      </c>
-      <c r="K14" s="14">
-        <f>J14*1.18</f>
-        <v>1463.1999999999998</v>
-      </c>
-      <c r="L14" s="24">
-        <f>K14+600</f>
-        <v>2063.1999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1</v>
-      </c>
-      <c r="E15" s="13">
-        <v>2458.5</v>
-      </c>
-      <c r="F15" s="13">
-        <v>665</v>
-      </c>
-      <c r="G15" s="13">
-        <f>SUM(E15+F15)*D15</f>
-        <v>3123.5</v>
-      </c>
-      <c r="I15" s="6">
-        <v>7875</v>
-      </c>
-      <c r="J15" s="6">
-        <f>I15/5</f>
-        <v>1575</v>
-      </c>
-      <c r="K15" s="14">
-        <f>J15*1.18</f>
-        <v>1858.5</v>
-      </c>
-      <c r="L15" s="24">
-        <f>K15+600</f>
-        <v>2458.5</v>
-      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:12" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16" s="13">
-        <v>2582.3999999999996</v>
+        <v>2063.1999999999998</v>
       </c>
       <c r="F16" s="13">
-        <v>760</v>
+        <v>570</v>
       </c>
       <c r="G16" s="13">
         <f>SUM(E16+F16)*D16</f>
-        <v>3342.3999999999996</v>
+        <v>13166</v>
       </c>
       <c r="I16" s="6">
-        <v>8400</v>
+        <v>6200</v>
       </c>
       <c r="J16" s="6">
         <f>I16/5</f>
-        <v>1680</v>
+        <v>1240</v>
       </c>
       <c r="K16" s="14">
         <f>J16*1.18</f>
-        <v>1982.3999999999999</v>
+        <v>1463.1999999999998</v>
       </c>
       <c r="L16" s="24">
         <f>K16+600</f>
-        <v>2582.3999999999996</v>
+        <v>2063.1999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="12">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E17" s="13">
-        <v>2728.72</v>
+        <v>2458.5</v>
       </c>
       <c r="F17" s="13">
-        <v>950</v>
+        <v>665</v>
       </c>
       <c r="G17" s="13">
         <f>SUM(E17+F17)*D17</f>
-        <v>257510.39999999999</v>
+        <v>3123.5</v>
       </c>
       <c r="I17" s="6">
-        <v>9020</v>
+        <v>7875</v>
       </c>
       <c r="J17" s="6">
         <f>I17/5</f>
-        <v>1804</v>
+        <v>1575</v>
       </c>
       <c r="K17" s="14">
         <f>J17*1.18</f>
-        <v>2128.7199999999998</v>
+        <v>1858.5</v>
       </c>
       <c r="L17" s="24">
         <f>K17+600</f>
-        <v>2728.72</v>
+        <v>2458.5</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="12">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E18" s="13">
-        <v>2983.6</v>
+        <v>2582.3999999999996</v>
       </c>
       <c r="F18" s="13">
-        <v>1140</v>
+        <v>760</v>
       </c>
       <c r="G18" s="13">
         <f>SUM(E18+F18)*D18</f>
-        <v>61854.000000000007</v>
+        <v>3342.3999999999996</v>
       </c>
       <c r="I18" s="6">
-        <v>10100</v>
+        <v>8400</v>
       </c>
       <c r="J18" s="6">
         <f>I18/5</f>
-        <v>2020</v>
+        <v>1680</v>
       </c>
       <c r="K18" s="14">
         <f>J18*1.18</f>
-        <v>2383.6</v>
+        <v>1982.3999999999999</v>
       </c>
       <c r="L18" s="24">
         <f>K18+600</f>
+        <v>2582.3999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="12">
+        <v>70</v>
+      </c>
+      <c r="E19" s="13">
+        <v>2728.72</v>
+      </c>
+      <c r="F19" s="13">
+        <v>950</v>
+      </c>
+      <c r="G19" s="13">
+        <f>SUM(E19+F19)*D19</f>
+        <v>257510.39999999999</v>
+      </c>
+      <c r="I19" s="6">
+        <v>9020</v>
+      </c>
+      <c r="J19" s="6">
+        <f>I19/5</f>
+        <v>1804</v>
+      </c>
+      <c r="K19" s="14">
+        <f>J19*1.18</f>
+        <v>2128.7199999999998</v>
+      </c>
+      <c r="L19" s="24">
+        <f>K19+600</f>
+        <v>2728.72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="12">
+        <v>15</v>
+      </c>
+      <c r="E20" s="13">
         <v>2983.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="26">
-        <f>SUM(G14:G18)</f>
+      <c r="F20" s="13">
+        <v>1140</v>
+      </c>
+      <c r="G20" s="13">
+        <f>SUM(E20+F20)*D20</f>
+        <v>61854.000000000007</v>
+      </c>
+      <c r="I20" s="6">
+        <v>10100</v>
+      </c>
+      <c r="J20" s="6">
+        <f>I20/5</f>
+        <v>2020</v>
+      </c>
+      <c r="K20" s="14">
+        <f>J20*1.18</f>
+        <v>2383.6</v>
+      </c>
+      <c r="L20" s="24">
+        <f>K20+600</f>
+        <v>2983.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="26">
+        <f>SUM(G16:G20)</f>
         <v>338996.3</v>
       </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="24"/>
-    </row>
-    <row r="21" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="K21" s="14"/>
+      <c r="L21" s="24"/>
+    </row>
+    <row r="24" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+    </row>
+    <row r="25" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-    </row>
-    <row r="22" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="12">
-        <v>5</v>
-      </c>
-      <c r="E24" s="13">
-        <v>6898.9879999999994</v>
-      </c>
-      <c r="F24" s="13">
-        <v>570</v>
-      </c>
-      <c r="G24" s="13">
-        <f>SUM(E24+F24)*D24</f>
-        <v>37344.939999999995</v>
-      </c>
-      <c r="I24" s="6">
-        <v>6200</v>
-      </c>
-      <c r="J24" s="6">
-        <f>I24/5</f>
-        <v>1240</v>
-      </c>
-      <c r="K24" s="14">
-        <f>J24*1.18</f>
-        <v>1463.1999999999998</v>
-      </c>
-      <c r="L24" s="24">
-        <f>K24+600</f>
-        <v>2063.1999999999998</v>
-      </c>
-      <c r="M24" s="14">
-        <f>L24*3.28</f>
-        <v>6767.2959999999994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="12">
-        <v>1</v>
-      </c>
-      <c r="E25" s="13">
-        <v>8762.8274999999994</v>
-      </c>
-      <c r="F25" s="13">
-        <v>665</v>
-      </c>
-      <c r="G25" s="13">
-        <f>SUM(E25+F25)*D25</f>
-        <v>9427.8274999999994</v>
-      </c>
-      <c r="I25" s="6">
-        <v>7875</v>
-      </c>
-      <c r="J25" s="6">
-        <f>I25/5</f>
-        <v>1575</v>
-      </c>
-      <c r="K25" s="14">
-        <f>J25*1.18</f>
-        <v>1858.5</v>
-      </c>
-      <c r="L25" s="24">
-        <f>K25+600</f>
-        <v>2458.5</v>
-      </c>
-      <c r="M25" s="14">
-        <f>L25*3.28</f>
-        <v>8063.8799999999992</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="12">
-        <v>1</v>
-      </c>
-      <c r="E26" s="13">
-        <v>9347.0159999999996</v>
-      </c>
-      <c r="F26" s="13">
-        <v>760</v>
-      </c>
-      <c r="G26" s="13">
-        <f>SUM(E26+F26)*D26</f>
-        <v>10107.016</v>
-      </c>
-      <c r="I26" s="6">
-        <v>8400</v>
-      </c>
-      <c r="J26" s="6">
-        <f>I26/5</f>
-        <v>1680</v>
-      </c>
-      <c r="K26" s="14">
-        <f>J26*1.18</f>
-        <v>1982.3999999999999</v>
-      </c>
-      <c r="L26" s="24">
-        <f>K26+600</f>
-        <v>2582.3999999999996</v>
-      </c>
-      <c r="M26" s="14">
-        <f>L26*3.28</f>
-        <v>8470.271999999999</v>
-      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="12">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="E27" s="13">
-        <v>10036.914799999999</v>
+        <v>3684.9675878399989</v>
       </c>
       <c r="F27" s="13">
-        <v>950</v>
+        <v>570</v>
       </c>
       <c r="G27" s="13">
         <f>SUM(E27+F27)*D27</f>
-        <v>769084.03599999985</v>
+        <v>21274.837939199999</v>
       </c>
       <c r="I27" s="6">
-        <v>9020</v>
+        <v>6200</v>
       </c>
       <c r="J27" s="6">
         <f>I27/5</f>
-        <v>1804</v>
+        <v>1240</v>
       </c>
       <c r="K27" s="14">
         <f>J27*1.18</f>
-        <v>2128.7199999999998</v>
+        <v>1463.1999999999998</v>
       </c>
       <c r="L27" s="24">
         <f>K27+600</f>
-        <v>2728.72</v>
+        <v>2063.1999999999998</v>
       </c>
       <c r="M27" s="14">
         <f>L27*3.28</f>
-        <v>8950.2015999999985</v>
+        <v>6767.2959999999994</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" s="12">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E28" s="13">
-        <v>11238.673999999999</v>
+        <v>5067.6107059199985</v>
       </c>
       <c r="F28" s="13">
-        <v>1140</v>
+        <v>665</v>
       </c>
       <c r="G28" s="13">
         <f>SUM(E28+F28)*D28</f>
-        <v>185680.11</v>
+        <v>5732.6107059199985</v>
       </c>
       <c r="I28" s="6">
-        <v>10100</v>
+        <v>7875</v>
       </c>
       <c r="J28" s="6">
         <f>I28/5</f>
-        <v>2020</v>
+        <v>1575</v>
       </c>
       <c r="K28" s="14">
         <f>J28*1.18</f>
-        <v>2383.6</v>
+        <v>1858.5</v>
       </c>
       <c r="L28" s="24">
         <f>K28+600</f>
-        <v>2983.6</v>
+        <v>2458.5</v>
       </c>
       <c r="M28" s="14">
         <f>L28*3.28</f>
+        <v>8063.8799999999992</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1</v>
+      </c>
+      <c r="E29" s="13">
+        <v>5835.3989836799992</v>
+      </c>
+      <c r="F29" s="13">
+        <v>760</v>
+      </c>
+      <c r="G29" s="13">
+        <f>SUM(E29+F29)*D29</f>
+        <v>6595.3989836799992</v>
+      </c>
+      <c r="I29" s="6">
+        <v>8400</v>
+      </c>
+      <c r="J29" s="6">
+        <f>I29/5</f>
+        <v>1680</v>
+      </c>
+      <c r="K29" s="14">
+        <f>J29*1.18</f>
+        <v>1982.3999999999999</v>
+      </c>
+      <c r="L29" s="24">
+        <f>K29+600</f>
+        <v>2582.3999999999996</v>
+      </c>
+      <c r="M29" s="14">
+        <f>L29*3.28</f>
+        <v>8470.271999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="12">
+        <v>70</v>
+      </c>
+      <c r="E30" s="13">
+        <v>7370.975539199997</v>
+      </c>
+      <c r="F30" s="13">
+        <v>950</v>
+      </c>
+      <c r="G30" s="13">
+        <f>SUM(E30+F30)*D30</f>
+        <v>582468.28774399974</v>
+      </c>
+      <c r="I30" s="6">
+        <v>9020</v>
+      </c>
+      <c r="J30" s="6">
+        <f>I30/5</f>
+        <v>1804</v>
+      </c>
+      <c r="K30" s="14">
+        <f>J30*1.18</f>
+        <v>2128.7199999999998</v>
+      </c>
+      <c r="L30" s="24">
+        <f>K30+600</f>
+        <v>2728.72</v>
+      </c>
+      <c r="M30" s="14">
+        <f>L30*3.28</f>
+        <v>8950.2015999999985</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="12">
+        <v>15</v>
+      </c>
+      <c r="E31" s="13">
+        <v>8599.6448563199992</v>
+      </c>
+      <c r="F31" s="13">
+        <v>1140</v>
+      </c>
+      <c r="G31" s="13">
+        <f>SUM(E31+F31)*D31</f>
+        <v>146094.67284479999</v>
+      </c>
+      <c r="I31" s="6">
+        <v>10100</v>
+      </c>
+      <c r="J31" s="6">
+        <f>I31/5</f>
+        <v>2020</v>
+      </c>
+      <c r="K31" s="14">
+        <f>J31*1.18</f>
+        <v>2383.6</v>
+      </c>
+      <c r="L31" s="24">
+        <f>K31+600</f>
+        <v>2983.6</v>
+      </c>
+      <c r="M31" s="14">
+        <f>L31*3.28</f>
         <v>9786.2079999999987</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="26">
-        <f>SUM(G24:G28)</f>
-        <v>1011643.9294999999</v>
-      </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="24"/>
-    </row>
-    <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-    </row>
-    <row r="32" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+    <row r="32" spans="1:13" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
+      <c r="B32" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="26">
+        <f>SUM(G27:G31)</f>
+        <v>762165.80821759976</v>
+      </c>
+      <c r="K32" s="14"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="34" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+    </row>
+    <row r="35" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B35" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C35" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D35" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E35" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F35" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:14" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:14" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+      <c r="D37" s="13">
+        <v>5</v>
+      </c>
+      <c r="E37" s="13">
+        <v>2640.3999999999996</v>
+      </c>
+      <c r="F37" s="13">
+        <v>570</v>
+      </c>
+      <c r="G37" s="13">
+        <f>SUM(E37+F37)*D37</f>
+        <v>16051.999999999998</v>
+      </c>
+      <c r="I37" s="6">
+        <v>2390</v>
+      </c>
+      <c r="J37" s="6">
+        <f>I37/5</f>
+        <v>478</v>
+      </c>
+      <c r="K37" s="14">
+        <v>560</v>
+      </c>
+      <c r="L37" s="24">
+        <f>K37+600</f>
+        <v>1160</v>
+      </c>
+      <c r="M37" s="14">
+        <f>L37*3.28</f>
+        <v>3804.7999999999997</v>
+      </c>
+      <c r="N37" s="25"/>
+    </row>
+    <row r="38" spans="1:14" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B38" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="13">
-        <v>5</v>
-      </c>
-      <c r="E34" s="13">
-        <v>2640.3999999999996</v>
-      </c>
-      <c r="F34" s="13">
-        <v>570</v>
-      </c>
-      <c r="G34" s="13">
-        <f>SUM(E34+F34)*D34</f>
-        <v>16051.999999999998</v>
-      </c>
-      <c r="I34" s="6">
-        <v>2390</v>
-      </c>
-      <c r="J34" s="6">
-        <f>I34/5</f>
-        <v>478</v>
-      </c>
-      <c r="K34" s="14">
-        <v>560</v>
-      </c>
-      <c r="L34" s="24">
-        <f>K34+600</f>
-        <v>1160</v>
-      </c>
-      <c r="M34" s="14">
-        <f>L34*3.28</f>
-        <v>3804.7999999999997</v>
-      </c>
-      <c r="N34" s="25"/>
-    </row>
-    <row r="35" spans="1:14" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="C38" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="13">
+        <v>1</v>
+      </c>
+      <c r="E38" s="13">
+        <v>2876.15</v>
+      </c>
+      <c r="F38" s="13">
+        <v>665</v>
+      </c>
+      <c r="G38" s="13">
+        <f>SUM(E38+F38)*D38</f>
+        <v>3541.15</v>
+      </c>
+      <c r="I38" s="6">
+        <v>2725</v>
+      </c>
+      <c r="J38" s="6">
+        <f>I38/5</f>
+        <v>545</v>
+      </c>
+      <c r="K38" s="14">
+        <v>610</v>
+      </c>
+      <c r="L38" s="24">
+        <f t="shared" ref="L38:L41" si="0">K38+600</f>
+        <v>1210</v>
+      </c>
+      <c r="M38" s="14">
+        <f t="shared" ref="M38:M41" si="1">L38*3.28</f>
+        <v>3968.7999999999997</v>
+      </c>
+      <c r="N38" s="25"/>
+    </row>
+    <row r="39" spans="1:14" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="13">
+      <c r="C39" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="13">
         <v>1</v>
       </c>
-      <c r="E35" s="13">
-        <v>2876.15</v>
-      </c>
-      <c r="F35" s="13">
+      <c r="E39" s="13">
+        <v>3135.4749999999995</v>
+      </c>
+      <c r="F39" s="13">
+        <v>760</v>
+      </c>
+      <c r="G39" s="13">
+        <f>SUM(E39+F39)*D39</f>
+        <v>3895.4749999999995</v>
+      </c>
+      <c r="I39" s="6">
+        <v>2975</v>
+      </c>
+      <c r="J39" s="6">
+        <f>I39/5</f>
+        <v>595</v>
+      </c>
+      <c r="K39" s="14">
         <v>665</v>
       </c>
-      <c r="G35" s="13">
-        <f>SUM(E35+F35)*D35</f>
-        <v>3541.15</v>
-      </c>
-      <c r="I35" s="6">
-        <v>2725</v>
-      </c>
-      <c r="J35" s="6">
-        <f>I35/5</f>
-        <v>545</v>
-      </c>
-      <c r="K35" s="14">
-        <v>610</v>
-      </c>
-      <c r="L35" s="24">
-        <f t="shared" ref="L35:L38" si="0">K35+600</f>
-        <v>1210</v>
-      </c>
-      <c r="M35" s="14">
-        <f t="shared" ref="M35:M38" si="1">L35*3.28</f>
-        <v>3968.7999999999997</v>
-      </c>
-      <c r="N35" s="25"/>
-    </row>
-    <row r="36" spans="1:14" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="13">
-        <v>1</v>
-      </c>
-      <c r="E36" s="13">
-        <v>3135.4749999999995</v>
-      </c>
-      <c r="F36" s="13">
-        <v>760</v>
-      </c>
-      <c r="G36" s="13">
-        <f>SUM(E36+F36)*D36</f>
-        <v>3895.4749999999995</v>
-      </c>
-      <c r="I36" s="6">
-        <v>2975</v>
-      </c>
-      <c r="J36" s="6">
-        <f>I36/5</f>
-        <v>595</v>
-      </c>
-      <c r="K36" s="14">
-        <v>665</v>
-      </c>
-      <c r="L36" s="24">
+      <c r="L39" s="24">
         <f t="shared" si="0"/>
         <v>1265</v>
       </c>
-      <c r="M36" s="14">
+      <c r="M39" s="14">
         <f t="shared" si="1"/>
         <v>4149.2</v>
       </c>
-      <c r="N36" s="25"/>
-    </row>
-    <row r="37" spans="1:14" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="13">
+      <c r="N39" s="25"/>
+    </row>
+    <row r="40" spans="1:14" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="13">
         <v>70</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E40" s="13">
         <v>3253.35</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F40" s="13">
         <v>950</v>
       </c>
-      <c r="G37" s="13">
-        <f>SUM(E37+F37)*D37</f>
+      <c r="G40" s="13">
+        <f>SUM(E40+F40)*D40</f>
         <v>294234.5</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I40" s="6">
         <v>3350</v>
       </c>
-      <c r="J37" s="6">
-        <f>I37/5</f>
+      <c r="J40" s="6">
+        <f>I40/5</f>
         <v>670</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K40" s="14">
         <v>690</v>
       </c>
-      <c r="L37" s="24">
+      <c r="L40" s="24">
         <f t="shared" si="0"/>
         <v>1290</v>
       </c>
-      <c r="M37" s="14">
+      <c r="M40" s="14">
         <f t="shared" si="1"/>
         <v>4231.2</v>
       </c>
-      <c r="N37" s="25"/>
-    </row>
-    <row r="38" spans="1:14" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="13">
+      <c r="N40" s="25"/>
+    </row>
+    <row r="41" spans="1:14" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="13">
         <v>15</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E41" s="13">
         <v>3701.2749999999996</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F41" s="13">
         <v>1140</v>
       </c>
-      <c r="G38" s="13">
-        <f>SUM(E38+F38)*D38</f>
+      <c r="G41" s="13">
+        <f>SUM(E41+F41)*D41</f>
         <v>72619.125</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I41" s="6">
         <v>3800</v>
       </c>
-      <c r="J38" s="6">
-        <f>I38/5</f>
+      <c r="J41" s="6">
+        <f>I41/5</f>
         <v>760</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K41" s="14">
         <v>785</v>
       </c>
-      <c r="L38" s="24">
+      <c r="L41" s="24">
         <f t="shared" si="0"/>
         <v>1385</v>
       </c>
-      <c r="M38" s="14">
+      <c r="M41" s="14">
         <f t="shared" si="1"/>
         <v>4542.8</v>
       </c>
-      <c r="N38" s="25"/>
-    </row>
-    <row r="39" spans="1:14" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="26">
-        <f>SUM(G34:G38)</f>
+      <c r="N41" s="25"/>
+    </row>
+    <row r="42" spans="1:14" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="12"/>
+      <c r="B42" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="26">
+        <f>SUM(G37:G41)</f>
         <v>390342.25</v>
       </c>
-      <c r="K39" s="14"/>
-      <c r="L39" s="24"/>
-    </row>
-    <row r="40" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="1:14" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="1:14" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="1:14" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="18"/>
-    </row>
-    <row r="44" spans="1:14" s="6" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="18"/>
-      <c r="I44" s="14"/>
-    </row>
-    <row r="45" spans="1:14" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="18"/>
-      <c r="I45" s="14">
+      <c r="K42" s="14"/>
+      <c r="L42" s="24"/>
+    </row>
+    <row r="43" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="1:14" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:14" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="1:14" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="23"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="18"/>
+    </row>
+    <row r="47" spans="1:14" s="6" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="18"/>
+      <c r="I47" s="14"/>
+    </row>
+    <row r="48" spans="1:14" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="19"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="18"/>
+      <c r="I48" s="14">
         <v>1668</v>
       </c>
-      <c r="J45" s="34">
-        <f>I45*3.28</f>
+      <c r="J48" s="30">
+        <f>I48*3.28</f>
         <v>5471.04</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I48" s="7"/>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I51" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="A12:G12"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>